--- a/data/trans_orig/P55S4-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P55S4-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E70B9AD1-648E-43C7-ACED-501B67E5D098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B783F8A-CB3E-4D65-AB5C-91DE9DB6A87E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C74AB03E-1A68-48ED-BFC3-13CFDA0D68DE}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AF9309EE-26D4-4448-904E-013F109110E2}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -550,7 +550,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{822FC46E-714F-45D5-831C-E910705D8179}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F9309C1-25D1-466D-9D67-C6546A9CF564}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1817,7 +1817,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D5C1996-50C8-4AE2-B765-4A0BF975E41E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFE20DBE-81B4-4853-A56D-4A51B5E1DCB6}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P55S4-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P55S4-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B783F8A-CB3E-4D65-AB5C-91DE9DB6A87E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{55F6856A-3718-44BF-8E43-128AAB7906E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AF9309EE-26D4-4448-904E-013F109110E2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8161515E-6FBF-4ED7-87DF-7DD5BCC8F102}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -550,7 +550,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F9309C1-25D1-466D-9D67-C6546A9CF564}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A6AEBC1-9205-4BF7-8A0E-12838B876380}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1817,7 +1817,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFE20DBE-81B4-4853-A56D-4A51B5E1DCB6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCB6BCFC-B7C8-42B7-9348-0D22D6891E0D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
